--- a/data/shipibo_colors (2018_02_21).xlsx
+++ b/data/shipibo_colors (2018_02_21).xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielle/Documents/repo/amazon_color/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954C594B-51BE-8348-9613-C2C710576C08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="1" r:id="rId1"/>
     <sheet name="Key" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="339">
   <si>
     <t>Term (2017 survey)</t>
   </si>
@@ -819,9 +820,6 @@
     <t>earth</t>
   </si>
   <si>
-    <t>mankoa, mancoapei, mancoa pei</t>
-  </si>
-  <si>
     <t>Mango</t>
   </si>
   <si>
@@ -1039,12 +1037,24 @@
   </si>
   <si>
     <t>meaning</t>
+  </si>
+  <si>
+    <t>Chawa</t>
+  </si>
+  <si>
+    <t>Grub</t>
+  </si>
+  <si>
+    <t>pei, andolni pei</t>
+  </si>
+  <si>
+    <t>mankoa, mancoapei, mancoa pei, manca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1444,12 +1454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2172,33 +2182,33 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>207</v>
@@ -2215,7 +2225,7 @@
         <v>210</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>207</v>
@@ -2238,10 +2248,10 @@
         <v>210</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2255,7 +2265,7 @@
         <v>211</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2272,7 +2282,7 @@
         <v>210</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>208</v>
@@ -2289,7 +2299,7 @@
         <v>211</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>207</v>
@@ -2309,13 +2319,13 @@
         <v>210</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2332,7 +2342,7 @@
         <v>210</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>208</v>
@@ -2369,7 +2379,7 @@
         <v>211</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -2386,7 +2396,7 @@
         <v>210</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>208</v>
@@ -2406,7 +2416,7 @@
         <v>210</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>208</v>
@@ -2423,7 +2433,7 @@
         <v>211</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>222</v>
@@ -2440,7 +2450,7 @@
         <v>210</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>222</v>
@@ -2460,7 +2470,7 @@
         <v>211</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>222</v>
@@ -2500,7 +2510,7 @@
         <v>211</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>222</v>
@@ -2520,7 +2530,7 @@
         <v>210</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>207</v>
@@ -2540,7 +2550,7 @@
         <v>210</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>222</v>
@@ -2557,10 +2567,10 @@
         <v>211</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -2568,13 +2578,13 @@
         <v>93</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>207</v>
@@ -2591,7 +2601,7 @@
         <v>211</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2608,7 +2618,7 @@
         <v>211</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>222</v>
@@ -2625,7 +2635,7 @@
         <v>210</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>207</v>
@@ -2645,7 +2655,7 @@
         <v>210</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>207</v>
@@ -2662,7 +2672,7 @@
         <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>207</v>
@@ -2679,7 +2689,7 @@
         <v>211</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>245</v>
@@ -2699,7 +2709,7 @@
         <v>210</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>208</v>
@@ -2719,7 +2729,7 @@
         <v>210</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>208</v>
@@ -2736,7 +2746,7 @@
         <v>211</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>222</v>
@@ -2744,7 +2754,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>166</v>
@@ -2753,7 +2763,7 @@
         <v>211</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>239</v>
@@ -2773,13 +2783,13 @@
         <v>210</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>109</v>
       </c>
@@ -2793,13 +2803,13 @@
         <v>210</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>110</v>
       </c>
@@ -2813,16 +2823,16 @@
         <v>210</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>228</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>111</v>
       </c>
@@ -2839,13 +2849,13 @@
         <v>211</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>197</v>
       </c>
@@ -2856,10 +2866,10 @@
         <v>211</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -2873,13 +2883,13 @@
         <v>211</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>114</v>
       </c>
@@ -2890,13 +2900,13 @@
         <v>211</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>113</v>
       </c>
@@ -2913,13 +2923,13 @@
         <v>211</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>115</v>
       </c>
@@ -2933,13 +2943,13 @@
         <v>211</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>116</v>
       </c>
@@ -2953,10 +2963,10 @@
         <v>211</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>117</v>
       </c>
@@ -2973,13 +2983,13 @@
         <v>211</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>195</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>211</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3083,9 +3093,9 @@
       <c r="AP83" s="9"/>
       <c r="AQ83" s="9"/>
     </row>
-    <row r="84" spans="1:43" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3096,13 +3106,13 @@
         <v>210</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3140,9 +3150,9 @@
       <c r="AP84" s="9"/>
       <c r="AQ84" s="9"/>
     </row>
-    <row r="85" spans="1:43" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3153,13 +3163,13 @@
         <v>210</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>228</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3197,9 +3207,9 @@
       <c r="AP85" s="9"/>
       <c r="AQ85" s="9"/>
     </row>
-    <row r="86" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3210,7 +3220,7 @@
         <v>211</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>239</v>
@@ -3252,9 +3262,9 @@
       <c r="AP86" s="9"/>
       <c r="AQ86" s="9"/>
     </row>
-    <row r="87" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="8" t="s">
@@ -3307,9 +3317,9 @@
       <c r="AP87" s="9"/>
       <c r="AQ87" s="9"/>
     </row>
-    <row r="88" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
@@ -3320,7 +3330,7 @@
         <v>211</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>207</v>
@@ -3362,8 +3372,10 @@
       <c r="AP88" s="9"/>
       <c r="AQ88" s="9"/>
     </row>
-    <row r="89" spans="1:43" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
+    <row r="89" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
         <v>174</v>
@@ -3371,7 +3383,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -3411,9 +3423,9 @@
       <c r="AP89" s="9"/>
       <c r="AQ89" s="9"/>
     </row>
-    <row r="90" spans="1:43" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
@@ -3424,7 +3436,7 @@
         <v>211</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>207</v>
@@ -3466,9 +3478,9 @@
       <c r="AP90" s="9"/>
       <c r="AQ90" s="9"/>
     </row>
-    <row r="91" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
@@ -3479,7 +3491,7 @@
         <v>211</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>207</v>
@@ -3521,9 +3533,9 @@
       <c r="AP91" s="9"/>
       <c r="AQ91" s="9"/>
     </row>
-    <row r="92" spans="1:43" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="8" t="s">
@@ -3534,7 +3546,7 @@
         <v>211</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>207</v>
@@ -3576,9 +3588,9 @@
       <c r="AP92" s="9"/>
       <c r="AQ92" s="9"/>
     </row>
-    <row r="93" spans="1:43" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="8" t="s">
@@ -3589,7 +3601,7 @@
         <v>211</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>207</v>
@@ -3631,8 +3643,10 @@
       <c r="AP93" s="9"/>
       <c r="AQ93" s="9"/>
     </row>
-    <row r="94" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
+    <row r="94" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="B94" s="7"/>
       <c r="C94" s="8" t="s">
         <v>179</v>
@@ -3642,7 +3656,7 @@
         <v>211</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>207</v>
@@ -3684,7 +3698,7 @@
       <c r="AP94" s="9"/>
       <c r="AQ94" s="9"/>
     </row>
-    <row r="95" spans="1:43" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8" t="s">
@@ -3695,7 +3709,7 @@
         <v>211</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>207</v>
@@ -3737,7 +3751,7 @@
       <c r="AP95" s="9"/>
       <c r="AQ95" s="9"/>
     </row>
-    <row r="96" spans="1:43" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
         <v>204</v>
@@ -3746,7 +3760,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -3786,7 +3800,7 @@
       <c r="AP96" s="9"/>
       <c r="AQ96" s="9"/>
     </row>
-    <row r="97" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
         <v>205</v>
@@ -3795,10 +3809,10 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
         <v>206</v>
@@ -3807,7 +3821,7 @@
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3820,11 +3834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3834,13 +3848,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
         <v>333</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>334</v>
-      </c>
-      <c r="C1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3867,7 +3881,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>208</v>
@@ -3878,7 +3892,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
         <v>228</v>
@@ -3889,7 +3903,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B6" t="s">
         <v>207</v>
@@ -3900,7 +3914,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
         <v>222</v>
@@ -3911,7 +3925,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
         <v>245</v>
@@ -3922,7 +3936,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B9" t="s">
         <v>225</v>

--- a/data/shipibo_colors (2018_02_21).xlsx
+++ b/data/shipibo_colors (2018_02_21).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielle/Documents/repo/amazon_color/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954C594B-51BE-8348-9613-C2C710576C08}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FB490-C349-9546-A2AD-D4AA2EFE72E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="337">
   <si>
     <t>Term (2017 survey)</t>
   </si>
@@ -685,9 +685,6 @@
     <t>blue</t>
   </si>
   <si>
-    <t>SLT / AHCT</t>
-  </si>
-  <si>
     <t xml:space="preserve">splippery earth after the rain; moss </t>
   </si>
   <si>
@@ -739,9 +736,6 @@
     <t>ash</t>
   </si>
   <si>
-    <t>NBCT, AHCT</t>
-  </si>
-  <si>
     <t>sky</t>
   </si>
   <si>
@@ -751,18 +745,12 @@
     <t>miror</t>
   </si>
   <si>
-    <t>AHCT, SLT</t>
-  </si>
-  <si>
     <t>grey</t>
   </si>
   <si>
     <t>I remember Kay telling me that it is a BCT in Mexican Spanish, we should be checked</t>
   </si>
   <si>
-    <t>BCT, AHCT</t>
-  </si>
-  <si>
     <t>blood</t>
   </si>
   <si>
@@ -835,9 +823,6 @@
     <t>heron / worn, losing its color</t>
   </si>
   <si>
-    <t>AHCT / SLT</t>
-  </si>
-  <si>
     <t>see "manxan" and "yankon"</t>
   </si>
   <si>
@@ -1049,6 +1034,15 @@
   </si>
   <si>
     <t>mankoa, mancoapei, mancoa pei, manca</t>
+  </si>
+  <si>
+    <t>BCT - AHCT</t>
+  </si>
+  <si>
+    <t>NBCT - AHCT</t>
+  </si>
+  <si>
+    <t>AHCT - SLT</t>
   </si>
 </sst>
 </file>
@@ -1458,8 +1452,8 @@
   <dimension ref="A1:AQ98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1496,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1616,13 +1610,13 @@
         <v>211</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1633,10 +1627,10 @@
         <v>211</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1653,7 +1647,7 @@
         <v>210</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>208</v>
@@ -1673,7 +1667,7 @@
         <v>210</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>207</v>
@@ -1693,10 +1687,10 @@
         <v>210</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1713,10 +1707,10 @@
         <v>211</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1733,13 +1727,13 @@
         <v>211</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1753,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1770,13 +1764,13 @@
         <v>210</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1790,7 +1784,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,13 +1801,13 @@
         <v>211</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>183</v>
       </c>
@@ -1824,10 +1818,10 @@
         <v>210</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1844,7 +1838,7 @@
         <v>210</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>208</v>
@@ -1864,7 +1858,7 @@
         <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1881,7 +1875,7 @@
         <v>211</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>207</v>
@@ -1898,7 +1892,7 @@
         <v>211</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1912,10 +1906,10 @@
         <v>211</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1932,7 +1926,7 @@
         <v>211</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>207</v>
@@ -1955,7 +1949,7 @@
         <v>211</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>208</v>
@@ -1972,7 +1966,7 @@
         <v>211</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1992,7 +1986,7 @@
         <v>211</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>208</v>
@@ -2012,7 +2006,7 @@
         <v>211</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>207</v>
@@ -2029,7 +2023,7 @@
         <v>211</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>207</v>
@@ -2046,7 +2040,7 @@
         <v>211</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>207</v>
@@ -2063,7 +2057,7 @@
         <v>211</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>207</v>
@@ -2080,7 +2074,7 @@
         <v>211</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>207</v>
@@ -2097,7 +2091,7 @@
         <v>211</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>207</v>
@@ -2117,10 +2111,10 @@
         <v>211</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2134,7 +2128,7 @@
         <v>210</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>207</v>
@@ -2151,10 +2145,10 @@
         <v>210</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2174,7 +2168,7 @@
         <v>211</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>207</v>
@@ -2182,16 +2176,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>207</v>
@@ -2199,16 +2193,16 @@
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>207</v>
@@ -2225,13 +2219,13 @@
         <v>210</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -2248,10 +2242,10 @@
         <v>210</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2265,7 +2259,7 @@
         <v>211</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2282,7 +2276,7 @@
         <v>210</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>208</v>
@@ -2299,7 +2293,7 @@
         <v>211</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>207</v>
@@ -2319,13 +2313,13 @@
         <v>210</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>207</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2342,7 +2336,7 @@
         <v>210</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>208</v>
@@ -2362,7 +2356,7 @@
         <v>211</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>207</v>
@@ -2379,7 +2373,7 @@
         <v>211</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -2396,7 +2390,7 @@
         <v>210</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>208</v>
@@ -2416,7 +2410,7 @@
         <v>210</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>208</v>
@@ -2433,10 +2427,10 @@
         <v>211</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2450,10 +2444,10 @@
         <v>210</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -2470,10 +2464,10 @@
         <v>211</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -2510,10 +2504,10 @@
         <v>211</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2530,7 +2524,7 @@
         <v>210</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>207</v>
@@ -2550,10 +2544,10 @@
         <v>210</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2567,7 +2561,7 @@
         <v>211</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2578,13 +2572,13 @@
         <v>93</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>207</v>
@@ -2601,7 +2595,7 @@
         <v>211</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2618,10 +2612,10 @@
         <v>211</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2635,7 +2629,7 @@
         <v>210</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>207</v>
@@ -2655,7 +2649,7 @@
         <v>210</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>207</v>
@@ -2672,13 +2666,13 @@
         <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>105</v>
       </c>
@@ -2689,13 +2683,13 @@
         <v>211</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>106</v>
       </c>
@@ -2709,13 +2703,13 @@
         <v>210</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>107</v>
       </c>
@@ -2729,13 +2723,13 @@
         <v>210</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -2746,15 +2740,15 @@
         <v>211</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>166</v>
@@ -2763,13 +2757,13 @@
         <v>211</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>194</v>
       </c>
@@ -2783,7 +2777,7 @@
         <v>210</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>207</v>
@@ -2803,7 +2797,7 @@
         <v>210</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>208</v>
@@ -2823,13 +2817,13 @@
         <v>210</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2849,7 +2843,7 @@
         <v>211</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>208</v>
@@ -2866,7 +2860,7 @@
         <v>211</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2883,10 +2877,10 @@
         <v>211</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2900,7 +2894,7 @@
         <v>211</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>207</v>
@@ -2923,7 +2917,7 @@
         <v>211</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>207</v>
@@ -2943,10 +2937,10 @@
         <v>211</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2963,7 +2957,7 @@
         <v>211</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -2983,7 +2977,7 @@
         <v>211</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>208</v>
@@ -3000,7 +2994,7 @@
         <v>211</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3095,7 +3089,7 @@
     </row>
     <row r="84" spans="1:43" s="3" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3106,13 +3100,13 @@
         <v>210</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>207</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3152,7 +3146,7 @@
     </row>
     <row r="85" spans="1:43" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3163,13 +3157,13 @@
         <v>210</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3209,7 +3203,7 @@
     </row>
     <row r="86" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3220,10 +3214,10 @@
         <v>211</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -3264,7 +3258,7 @@
     </row>
     <row r="87" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="8" t="s">
@@ -3275,7 +3269,7 @@
         <v>210</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>207</v>
@@ -3319,7 +3313,7 @@
     </row>
     <row r="88" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
@@ -3330,7 +3324,7 @@
         <v>211</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>207</v>
@@ -3374,7 +3368,7 @@
     </row>
     <row r="89" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
@@ -3383,7 +3377,7 @@
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -3425,7 +3419,7 @@
     </row>
     <row r="90" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
@@ -3436,7 +3430,7 @@
         <v>211</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>207</v>
@@ -3480,7 +3474,7 @@
     </row>
     <row r="91" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
@@ -3491,7 +3485,7 @@
         <v>211</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>207</v>
@@ -3535,7 +3529,7 @@
     </row>
     <row r="92" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="8" t="s">
@@ -3546,7 +3540,7 @@
         <v>211</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>207</v>
@@ -3590,7 +3584,7 @@
     </row>
     <row r="93" spans="1:43" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="8" t="s">
@@ -3601,7 +3595,7 @@
         <v>211</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>207</v>
@@ -3645,7 +3639,7 @@
     </row>
     <row r="94" spans="1:43" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="8" t="s">
@@ -3656,7 +3650,7 @@
         <v>211</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>207</v>
@@ -3709,7 +3703,7 @@
         <v>211</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>207</v>
@@ -3760,7 +3754,7 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -3809,7 +3803,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3821,7 +3815,7 @@
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3838,7 +3832,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3848,13 +3842,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3865,7 +3859,7 @@
         <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3876,73 +3870,73 @@
         <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
         <v>228</v>
-      </c>
-      <c r="C5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/shipibo_colors (2018_02_21).xlsx
+++ b/data/shipibo_colors (2018_02_21).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielle/Documents/repo/amazon_color/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5FB490-C349-9546-A2AD-D4AA2EFE72E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BF3890-65C1-D444-BEB7-AB00538194B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="337">
   <si>
     <t>Term (2017 survey)</t>
   </si>
@@ -1453,7 +1453,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2097,7 +2097,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>258</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>143</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>262</v>
@@ -2248,7 +2248,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>70</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>72</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>74</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>76</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>78</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>80</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>161</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>82</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>84</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>103</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>144</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>277</v>
@@ -2550,7 +2550,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>202</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>189</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>191</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>104</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -2664,6 +2664,9 @@
       </c>
       <c r="C64" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>284</v>

--- a/data/shipibo_colors (2018_02_21).xlsx
+++ b/data/shipibo_colors (2018_02_21).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielle/Documents/repo/amazon_color/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BF3890-65C1-D444-BEB7-AB00538194B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4A0CC-B41E-6144-A234-D9A802963FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="338">
   <si>
     <t>Term (2017 survey)</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>AHCT - SLT</t>
+  </si>
+  <si>
+    <t>SK/SP</t>
   </si>
 </sst>
 </file>
@@ -1452,8 +1455,8 @@
   <dimension ref="A1:AQ98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2390,7 @@
         <v>163</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>270</v>
@@ -3822,7 +3825,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F84">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F84">
     <sortCondition ref="A61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
